--- a/pcb_stuff/v3.0/bom_fan-checked.xlsx
+++ b/pcb_stuff/v3.0/bom_fan-checked.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\tobedeleted\tain_airl\stm8\stm8_train_air\pcb_stuff\v3.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B85112-1090-4901-8121-EF3E4CF59255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="6048" xr2:uid="{06AF5163-577E-4FF1-A85A-89DB3431E711}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="6048"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -127,9 +121,6 @@
     <t>0K</t>
   </si>
   <si>
-    <t>R25,</t>
-  </si>
-  <si>
     <t>R'</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
   </si>
   <si>
     <t>100K</t>
-  </si>
-  <si>
-    <t>R16,R15,</t>
   </si>
   <si>
     <t>100KΩ (1003) ±1%</t>
@@ -596,16 +584,24 @@
   <si>
     <t>1uf  105/1210</t>
   </si>
+  <si>
+    <t>R16,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>R25,R15,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -636,6 +632,13 @@
       <sz val="7"/>
       <color rgb="FF333333"/>
       <name val="Arail"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -931,6 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,10 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1022,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1071,7 +1074,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1265,21 +1268,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A61B5D-B60D-43BF-B3ED-6D71A6F1AD64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1287,29 +1290,29 @@
     <col min="16" max="16" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1464,13 +1467,13 @@
         <v>603</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="2">
+        <v>603</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>603</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1479,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>603</v>
@@ -1488,10 +1491,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N5" s="3">
         <v>1.95E-2</v>
@@ -1506,19 +1509,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="16">
         <v>805</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="16">
         <v>603</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="16">
         <v>2</v>
@@ -1527,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="16">
         <v>603</v>
@@ -1536,10 +1539,10 @@
         <v>10</v>
       </c>
       <c r="L6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="N6" s="16">
         <v>1.95E-2</v>
@@ -1554,19 +1557,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16">
         <v>603</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="16">
         <v>603</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
@@ -1575,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="16">
         <v>603</v>
@@ -1584,10 +1587,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="16">
         <v>1.95E-2</v>
@@ -1608,13 +1611,13 @@
         <v>805</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="16">
         <v>603</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="16">
         <v>2</v>
@@ -1623,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="16">
         <v>603</v>
@@ -1632,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="16">
         <v>1.95E-2</v>
@@ -1650,19 +1653,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>603</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2">
-        <v>603</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="2">
         <v>603</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
@@ -1671,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2">
         <v>603</v>
@@ -1680,10 +1683,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N9" s="3">
         <v>1.2E-2</v>
@@ -1698,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>603</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2">
-        <v>603</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="2">
         <v>603</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1719,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2">
         <v>603</v>
@@ -1728,10 +1731,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N10" s="3">
         <v>1.7999999999999999E-2</v>
@@ -1746,28 +1749,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="16">
         <v>805</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16">
+        <v>603</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="16">
-        <v>603</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="16">
-        <v>2</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="J11" s="16">
         <v>603</v>
@@ -1776,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="L11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="N11" s="16">
         <v>1.9300000000000001E-2</v>
@@ -1794,19 +1797,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="16">
         <v>603</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="16">
         <v>603</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
@@ -1815,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="16">
         <v>603</v>
@@ -1824,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" s="16">
         <v>1.9300000000000001E-2</v>
@@ -1842,19 +1845,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>805</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2">
         <v>603</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1863,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2">
         <v>603</v>
@@ -1872,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N13" s="3">
         <v>2.1499999999999998E-2</v>
@@ -1890,19 +1893,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16">
         <v>805</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="16">
         <v>603</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="16">
         <v>2</v>
@@ -1911,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="16">
         <v>603</v>
@@ -1920,10 +1923,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N14" s="16">
         <v>1.78E-2</v>
@@ -1933,24 +1936,24 @@
       </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="29.4" thickBot="1">
+    <row r="15" spans="1:16" ht="19.8" thickBot="1">
       <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="16">
+        <v>603</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="16">
+        <v>603</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="16">
-        <v>603</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="16">
-        <v>603</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="16">
         <v>2</v>
@@ -1959,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="16">
         <v>603</v>
@@ -1968,10 +1971,10 @@
         <v>25</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N15" s="16">
         <v>1.78E-2</v>
@@ -1986,19 +1989,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="16">
         <v>603</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="16">
         <v>603</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="16">
         <v>2</v>
@@ -2007,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="16">
         <v>603</v>
@@ -2016,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N16" s="16">
         <v>1.78E-2</v>
@@ -2034,19 +2037,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="16">
         <v>603</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="16">
         <v>603</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="16">
         <v>2</v>
@@ -2055,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="16">
         <v>603</v>
@@ -2064,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N17" s="16">
         <v>1.78E-2</v>
@@ -2088,13 +2091,13 @@
         <v>805</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2">
         <v>603</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -2103,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="2">
         <v>805</v>
@@ -2112,10 +2115,10 @@
         <v>5</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N18" s="3">
         <v>6.1400000000000003E-2</v>
@@ -2125,7 +2128,7 @@
       </c>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="19.8" thickBot="1">
+    <row r="19" spans="1:16" ht="14.4" thickBot="1">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2134,7 +2137,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2">
         <v>9013</v>
@@ -2149,19 +2152,19 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19" s="3">
         <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N19" s="3">
         <v>0.13600000000000001</v>
@@ -2182,13 +2185,13 @@
         <v>603</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2">
         <v>603</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
@@ -2197,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2">
         <v>603</v>
@@ -2206,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N20" s="3">
         <v>1.9800000000000002E-2</v>
@@ -2224,17 +2227,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -2243,19 +2246,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21" s="3">
         <v>5</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N21" s="3">
         <v>8.1100000000000005E-2</v>
@@ -2265,44 +2268,44 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1">
+    <row r="22" spans="1:16" ht="14.4" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-    </row>
-    <row r="23" spans="1:16" ht="19.8" thickBot="1">
+      <c r="B22" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.4" thickBot="1">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2">
         <v>20</v>
@@ -2319,19 +2322,19 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1">
+    <row r="24" spans="1:16" ht="14.4" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
@@ -2351,22 +2354,22 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1">
+    <row r="25" spans="1:16" ht="14.4" thickBot="1">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
@@ -2383,22 +2386,22 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" ht="19.8" thickBot="1">
+    <row r="26" spans="1:16" ht="14.4" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
@@ -2415,22 +2418,22 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="15" thickBot="1">
+    <row r="27" spans="1:16" ht="14.4" thickBot="1">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -2447,22 +2450,22 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1">
+    <row r="28" spans="1:16" ht="14.4" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G28" s="2">
         <v>8</v>
@@ -2479,22 +2482,22 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1">
+    <row r="29" spans="1:16" ht="14.4" thickBot="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="G29" s="2">
         <v>26</v>
@@ -2511,22 +2514,22 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1">
+    <row r="30" spans="1:16" ht="14.4" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G30" s="2">
         <v>3</v>
@@ -2543,7 +2546,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1">
+    <row r="31" spans="1:16" ht="14.4" thickBot="1">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -2552,13 +2555,13 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="G31" s="14">
         <v>3</v>
@@ -2575,24 +2578,24 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1">
+    <row r="32" spans="1:16" ht="14.4" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
         <v>603</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2">
         <v>603</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2609,7 +2612,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="15" thickBot="1">
+    <row r="33" spans="1:16" ht="14.4" thickBot="1">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -2618,7 +2621,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -2641,19 +2644,19 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1">
+    <row r="34" spans="1:16" ht="14.4" thickBot="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>21</v>
@@ -2673,22 +2676,22 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="15" thickBot="1">
+    <row r="35" spans="1:16" ht="14.4" thickBot="1">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G35" s="2">
         <v>16</v>
@@ -2705,24 +2708,24 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1">
+    <row r="36" spans="1:16" ht="14.4" thickBot="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G36" s="2">
         <v>8</v>
@@ -2739,24 +2742,24 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1">
+    <row r="37" spans="1:16" ht="14.4" thickBot="1">
       <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="11">
+        <v>603</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="11">
+        <v>603</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="11">
-        <v>603</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="11">
-        <v>603</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="G37" s="11">
         <v>2</v>
@@ -2773,24 +2776,24 @@
       <c r="O37" s="12"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="19.8" thickBot="1">
+    <row r="38" spans="1:16" ht="14.4" thickBot="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="2">
         <v>603</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2">
         <v>603</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2812,19 +2815,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="3">
         <v>603</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" s="3">
         <v>603</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
@@ -2838,19 +2841,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2">
         <v>603</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2">
         <v>603</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -2867,18 +2870,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" ht="15" thickBot="1">
+    <row r="41" spans="1:16" ht="14.4" thickBot="1">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2">
         <v>805</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2">
         <v>603</v>
@@ -2912,7 +2915,7 @@
         <v>603</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3">
         <v>603</v>
@@ -2927,22 +2930,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1">
+    <row r="43" spans="1:16" ht="14.4" thickBot="1">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G43" s="2">
         <v>48</v>
@@ -2970,13 +2973,13 @@
         <v>603</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" s="3">
         <v>603</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -2990,19 +2993,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="7">
         <v>603</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" s="7">
         <v>603</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G45" s="7">
         <v>2</v>
@@ -3020,119 +3023,119 @@
       <c r="P45" s="9"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="27"/>
+        <v>153</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="28"/>
       <c r="F49" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>105</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="27"/>
+      <c r="C50" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="28"/>
       <c r="F50" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="29">
+      <c r="A51" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="20">
         <v>104</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="27"/>
+      <c r="C51" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="28"/>
       <c r="F51" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52">
         <v>103</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="29" t="s">
+      <c r="C52" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" s="28"/>
+      <c r="F53" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="E54" s="29"/>
+      <c r="F54" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="E53" s="27"/>
-      <c r="F53" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="E54" s="28"/>
-      <c r="F54" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>161</v>
+      <c r="G54" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3142,31 +3145,35 @@
     <mergeCell ref="B22:P22"/>
     <mergeCell ref="E47:E54"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE387D-8473-4561-903E-714B1FB4EC37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D063BC44-942C-4BA0-9A00-D1084D28B18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>